--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tnc-Itga7.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tnc-Itga7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Itga7</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.634738961182449</v>
+        <v>5.215822</v>
       </c>
       <c r="H2">
-        <v>0.634738961182449</v>
+        <v>15.647466</v>
       </c>
       <c r="I2">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J2">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.18969889110557</v>
+        <v>1.356035</v>
       </c>
       <c r="N2">
-        <v>1.18969889110557</v>
+        <v>4.068105</v>
       </c>
       <c r="O2">
-        <v>0.02336426112772133</v>
+        <v>0.02389128477470859</v>
       </c>
       <c r="P2">
-        <v>0.02336426112772133</v>
+        <v>0.02389128477470859</v>
       </c>
       <c r="Q2">
-        <v>0.755148238260261</v>
+        <v>7.072837185770001</v>
       </c>
       <c r="R2">
-        <v>0.755148238260261</v>
+        <v>63.65553467193</v>
       </c>
       <c r="S2">
-        <v>0.0001251000548549663</v>
+        <v>0.0009632524012691212</v>
       </c>
       <c r="T2">
-        <v>0.0001251000548549663</v>
+        <v>0.0009632524012691208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.634738961182449</v>
+        <v>5.215822</v>
       </c>
       <c r="H3">
-        <v>0.634738961182449</v>
+        <v>15.647466</v>
       </c>
       <c r="I3">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J3">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.1868614501214</v>
+        <v>2.189198666666667</v>
       </c>
       <c r="N3">
-        <v>2.1868614501214</v>
+        <v>6.567596</v>
       </c>
       <c r="O3">
-        <v>0.04294733932491309</v>
+        <v>0.03857036785462446</v>
       </c>
       <c r="P3">
-        <v>0.04294733932491309</v>
+        <v>0.03857036785462446</v>
       </c>
       <c r="Q3">
-        <v>1.388086165100001</v>
+        <v>11.41847056797067</v>
       </c>
       <c r="R3">
-        <v>1.388086165100001</v>
+        <v>102.766235111736</v>
       </c>
       <c r="S3">
-        <v>0.0002299543938518491</v>
+        <v>0.001555085873537058</v>
       </c>
       <c r="T3">
-        <v>0.0002299543938518491</v>
+        <v>0.001555085873537058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.634738961182449</v>
+        <v>5.215822</v>
       </c>
       <c r="H4">
-        <v>0.634738961182449</v>
+        <v>15.647466</v>
       </c>
       <c r="I4">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J4">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.529331852907259</v>
+        <v>1.022878333333333</v>
       </c>
       <c r="N4">
-        <v>0.529331852907259</v>
+        <v>3.068635</v>
       </c>
       <c r="O4">
-        <v>0.01039544352525444</v>
+        <v>0.01802156843410824</v>
       </c>
       <c r="P4">
-        <v>0.01039544352525444</v>
+        <v>0.01802156843410824</v>
       </c>
       <c r="Q4">
-        <v>0.3359875504351345</v>
+        <v>5.335151314323333</v>
       </c>
       <c r="R4">
-        <v>0.3359875504351345</v>
+        <v>48.01636182891</v>
       </c>
       <c r="S4">
-        <v>5.566067542825252E-05</v>
+        <v>0.0007265962978754161</v>
       </c>
       <c r="T4">
-        <v>5.566067542825252E-05</v>
+        <v>0.0007265962978754159</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.634738961182449</v>
+        <v>5.215822</v>
       </c>
       <c r="H5">
-        <v>0.634738961182449</v>
+        <v>15.647466</v>
       </c>
       <c r="I5">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J5">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.405604611957196</v>
+        <v>0.492087</v>
       </c>
       <c r="N5">
-        <v>0.405604611957196</v>
+        <v>1.476261</v>
       </c>
       <c r="O5">
-        <v>0.007965588720999391</v>
+        <v>0.00866982832370258</v>
       </c>
       <c r="P5">
-        <v>0.007965588720999391</v>
+        <v>0.00866982832370258</v>
       </c>
       <c r="Q5">
-        <v>0.2574530500445209</v>
+        <v>2.566638200514</v>
       </c>
       <c r="R5">
-        <v>0.2574530500445209</v>
+        <v>23.099743804626</v>
       </c>
       <c r="S5">
-        <v>4.265042153491421E-05</v>
+        <v>0.000349551438114295</v>
       </c>
       <c r="T5">
-        <v>4.265042153491421E-05</v>
+        <v>0.0003495514381142949</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.634738961182449</v>
+        <v>5.215822</v>
       </c>
       <c r="H6">
-        <v>0.634738961182449</v>
+        <v>15.647466</v>
       </c>
       <c r="I6">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J6">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.564572820492847</v>
+        <v>0.624846</v>
       </c>
       <c r="N6">
-        <v>0.564572820492847</v>
+        <v>1.874538</v>
       </c>
       <c r="O6">
-        <v>0.01108753391486393</v>
+        <v>0.01100884101541447</v>
       </c>
       <c r="P6">
-        <v>0.01108753391486393</v>
+        <v>0.01100884101541447</v>
       </c>
       <c r="Q6">
-        <v>0.3583563655914749</v>
+        <v>3.259085513412</v>
       </c>
       <c r="R6">
-        <v>0.3583563655914749</v>
+        <v>29.331769620708</v>
       </c>
       <c r="S6">
-        <v>5.936635844692143E-05</v>
+        <v>0.0004438561024777423</v>
       </c>
       <c r="T6">
-        <v>5.936635844692143E-05</v>
+        <v>0.0004438561024777422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.634738961182449</v>
+        <v>5.215822</v>
       </c>
       <c r="H7">
-        <v>0.634738961182449</v>
+        <v>15.647466</v>
       </c>
       <c r="I7">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J7">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.0435329494206</v>
+        <v>51.07351833333333</v>
       </c>
       <c r="N7">
-        <v>46.0435329494206</v>
+        <v>153.220555</v>
       </c>
       <c r="O7">
-        <v>0.9042398333862478</v>
+        <v>0.8998381095974417</v>
       </c>
       <c r="P7">
-        <v>0.9042398333862478</v>
+        <v>0.8998381095974416</v>
       </c>
       <c r="Q7">
-        <v>29.2256242734851</v>
+        <v>266.3903805404033</v>
       </c>
       <c r="R7">
-        <v>29.2256242734851</v>
+        <v>2397.51342486363</v>
       </c>
       <c r="S7">
-        <v>0.004841601972358096</v>
+        <v>0.03627980780425712</v>
       </c>
       <c r="T7">
-        <v>0.004841601972358096</v>
+        <v>0.03627980780425712</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>83.6702630614527</v>
+        <v>84.97076433333332</v>
       </c>
       <c r="H8">
-        <v>83.6702630614527</v>
+        <v>254.912293</v>
       </c>
       <c r="I8">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="J8">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.18969889110557</v>
+        <v>1.356035</v>
       </c>
       <c r="N8">
-        <v>1.18969889110557</v>
+        <v>4.068105</v>
       </c>
       <c r="O8">
-        <v>0.02336426112772133</v>
+        <v>0.02389128477470859</v>
       </c>
       <c r="P8">
-        <v>0.02336426112772133</v>
+        <v>0.02389128477470859</v>
       </c>
       <c r="Q8">
-        <v>99.5424191827216</v>
+        <v>115.2233304127517</v>
       </c>
       <c r="R8">
-        <v>99.5424191827216</v>
+        <v>1037.009973714765</v>
       </c>
       <c r="S8">
-        <v>0.01649048685969746</v>
+        <v>0.0156923094349761</v>
       </c>
       <c r="T8">
-        <v>0.01649048685969746</v>
+        <v>0.0156923094349761</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>83.6702630614527</v>
+        <v>84.97076433333332</v>
       </c>
       <c r="H9">
-        <v>83.6702630614527</v>
+        <v>254.912293</v>
       </c>
       <c r="I9">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="J9">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.1868614501214</v>
+        <v>2.189198666666667</v>
       </c>
       <c r="N9">
-        <v>2.1868614501214</v>
+        <v>6.567596</v>
       </c>
       <c r="O9">
-        <v>0.04294733932491309</v>
+        <v>0.03857036785462446</v>
       </c>
       <c r="P9">
-        <v>0.04294733932491309</v>
+        <v>0.03857036785462446</v>
       </c>
       <c r="Q9">
-        <v>182.9752728106075</v>
+        <v>186.0178839841809</v>
       </c>
       <c r="R9">
-        <v>182.9752728106075</v>
+        <v>1674.160955857628</v>
       </c>
       <c r="S9">
-        <v>0.03031221620597933</v>
+        <v>0.02533384676057066</v>
       </c>
       <c r="T9">
-        <v>0.03031221620597933</v>
+        <v>0.02533384676057066</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>83.6702630614527</v>
+        <v>84.97076433333332</v>
       </c>
       <c r="H10">
-        <v>83.6702630614527</v>
+        <v>254.912293</v>
       </c>
       <c r="I10">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="J10">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.529331852907259</v>
+        <v>1.022878333333333</v>
       </c>
       <c r="N10">
-        <v>0.529331852907259</v>
+        <v>3.068635</v>
       </c>
       <c r="O10">
-        <v>0.01039544352525444</v>
+        <v>0.01802156843410824</v>
       </c>
       <c r="P10">
-        <v>0.01039544352525444</v>
+        <v>0.01802156843410824</v>
       </c>
       <c r="Q10">
-        <v>44.28933537955655</v>
+        <v>86.91475380333944</v>
       </c>
       <c r="R10">
-        <v>44.28933537955655</v>
+        <v>782.2327842300549</v>
       </c>
       <c r="S10">
-        <v>0.007337100194045562</v>
+        <v>0.0118369535601952</v>
       </c>
       <c r="T10">
-        <v>0.007337100194045562</v>
+        <v>0.0118369535601952</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>83.6702630614527</v>
+        <v>84.97076433333332</v>
       </c>
       <c r="H11">
-        <v>83.6702630614527</v>
+        <v>254.912293</v>
       </c>
       <c r="I11">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="J11">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.405604611957196</v>
+        <v>0.492087</v>
       </c>
       <c r="N11">
-        <v>0.405604611957196</v>
+        <v>1.476261</v>
       </c>
       <c r="O11">
-        <v>0.007965588720999391</v>
+        <v>0.00866982832370258</v>
       </c>
       <c r="P11">
-        <v>0.007965588720999391</v>
+        <v>0.00866982832370258</v>
       </c>
       <c r="Q11">
-        <v>33.93704458139703</v>
+        <v>41.81300850849699</v>
       </c>
       <c r="R11">
-        <v>33.93704458139703</v>
+        <v>376.317076576473</v>
       </c>
       <c r="S11">
-        <v>0.00562210957219368</v>
+        <v>0.005694529619758401</v>
       </c>
       <c r="T11">
-        <v>0.00562210957219368</v>
+        <v>0.005694529619758401</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.6702630614527</v>
+        <v>84.97076433333332</v>
       </c>
       <c r="H12">
-        <v>83.6702630614527</v>
+        <v>254.912293</v>
       </c>
       <c r="I12">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="J12">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.564572820492847</v>
+        <v>0.624846</v>
       </c>
       <c r="N12">
-        <v>0.564572820492847</v>
+        <v>1.874538</v>
       </c>
       <c r="O12">
-        <v>0.01108753391486393</v>
+        <v>0.01100884101541447</v>
       </c>
       <c r="P12">
-        <v>0.01108753391486393</v>
+        <v>0.01100884101541447</v>
       </c>
       <c r="Q12">
-        <v>47.23795640798282</v>
+        <v>53.09364221062599</v>
       </c>
       <c r="R12">
-        <v>47.23795640798282</v>
+        <v>477.842779895634</v>
       </c>
       <c r="S12">
-        <v>0.007825577334974151</v>
+        <v>0.007230843437822088</v>
       </c>
       <c r="T12">
-        <v>0.007825577334974151</v>
+        <v>0.007230843437822088</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.6702630614527</v>
+        <v>84.97076433333332</v>
       </c>
       <c r="H13">
-        <v>83.6702630614527</v>
+        <v>254.912293</v>
       </c>
       <c r="I13">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="J13">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>46.0435329494206</v>
+        <v>51.07351833333333</v>
       </c>
       <c r="N13">
-        <v>46.0435329494206</v>
+        <v>153.220555</v>
       </c>
       <c r="O13">
-        <v>0.9042398333862478</v>
+        <v>0.8998381095974417</v>
       </c>
       <c r="P13">
-        <v>0.9042398333862478</v>
+        <v>0.8998381095974416</v>
       </c>
       <c r="Q13">
-        <v>3852.474514156687</v>
+        <v>4339.755889975845</v>
       </c>
       <c r="R13">
-        <v>3852.474514156687</v>
+        <v>39057.80300978261</v>
       </c>
       <c r="S13">
-        <v>0.638212139855724</v>
+        <v>0.591033014354048</v>
       </c>
       <c r="T13">
-        <v>0.638212139855724</v>
+        <v>0.5910330143540479</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>34.2417632381682</v>
+        <v>0.03355766666666667</v>
       </c>
       <c r="H14">
-        <v>34.2417632381682</v>
+        <v>0.100673</v>
       </c>
       <c r="I14">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082319</v>
       </c>
       <c r="J14">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082318</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.18969889110557</v>
+        <v>1.356035</v>
       </c>
       <c r="N14">
-        <v>1.18969889110557</v>
+        <v>4.068105</v>
       </c>
       <c r="O14">
-        <v>0.02336426112772133</v>
+        <v>0.02389128477470859</v>
       </c>
       <c r="P14">
-        <v>0.02336426112772133</v>
+        <v>0.02389128477470859</v>
       </c>
       <c r="Q14">
-        <v>40.73738775394817</v>
+        <v>0.04550537051833334</v>
       </c>
       <c r="R14">
-        <v>40.73738775394817</v>
+        <v>0.409548334665</v>
       </c>
       <c r="S14">
-        <v>0.006748674213168902</v>
+        <v>6.197393813986637E-06</v>
       </c>
       <c r="T14">
-        <v>0.006748674213168902</v>
+        <v>6.197393813986635E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>34.2417632381682</v>
+        <v>0.03355766666666667</v>
       </c>
       <c r="H15">
-        <v>34.2417632381682</v>
+        <v>0.100673</v>
       </c>
       <c r="I15">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082319</v>
       </c>
       <c r="J15">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082318</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.1868614501214</v>
+        <v>2.189198666666667</v>
       </c>
       <c r="N15">
-        <v>2.1868614501214</v>
+        <v>6.567596</v>
       </c>
       <c r="O15">
-        <v>0.04294733932491309</v>
+        <v>0.03857036785462446</v>
       </c>
       <c r="P15">
-        <v>0.04294733932491309</v>
+        <v>0.03857036785462446</v>
       </c>
       <c r="Q15">
-        <v>74.88199200973415</v>
+        <v>0.0734643991231111</v>
       </c>
       <c r="R15">
-        <v>74.88199200973415</v>
+        <v>0.661179592108</v>
       </c>
       <c r="S15">
-        <v>0.01240516872508191</v>
+        <v>1.000514461233507E-05</v>
       </c>
       <c r="T15">
-        <v>0.01240516872508191</v>
+        <v>1.000514461233507E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>34.2417632381682</v>
+        <v>0.03355766666666667</v>
       </c>
       <c r="H16">
-        <v>34.2417632381682</v>
+        <v>0.100673</v>
       </c>
       <c r="I16">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082319</v>
       </c>
       <c r="J16">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082318</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.529331852907259</v>
+        <v>1.022878333333333</v>
       </c>
       <c r="N16">
-        <v>0.529331852907259</v>
+        <v>3.068635</v>
       </c>
       <c r="O16">
-        <v>0.01039544352525444</v>
+        <v>0.01802156843410824</v>
       </c>
       <c r="P16">
-        <v>0.01039544352525444</v>
+        <v>0.01802156843410824</v>
       </c>
       <c r="Q16">
-        <v>18.12525598167124</v>
+        <v>0.03432541015055555</v>
       </c>
       <c r="R16">
-        <v>18.12525598167124</v>
+        <v>0.308928691355</v>
       </c>
       <c r="S16">
-        <v>0.003002682655780622</v>
+        <v>4.674790735829799E-06</v>
       </c>
       <c r="T16">
-        <v>0.003002682655780622</v>
+        <v>4.674790735829798E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>34.2417632381682</v>
+        <v>0.03355766666666667</v>
       </c>
       <c r="H17">
-        <v>34.2417632381682</v>
+        <v>0.100673</v>
       </c>
       <c r="I17">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082319</v>
       </c>
       <c r="J17">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082318</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.405604611957196</v>
+        <v>0.492087</v>
       </c>
       <c r="N17">
-        <v>0.405604611957196</v>
+        <v>1.476261</v>
       </c>
       <c r="O17">
-        <v>0.007965588720999391</v>
+        <v>0.00866982832370258</v>
       </c>
       <c r="P17">
-        <v>0.007965588720999391</v>
+        <v>0.00866982832370258</v>
       </c>
       <c r="Q17">
-        <v>13.88861709094739</v>
+        <v>0.016513291517</v>
       </c>
       <c r="R17">
-        <v>13.88861709094739</v>
+        <v>0.148619623653</v>
       </c>
       <c r="S17">
-        <v>0.002300828727270798</v>
+        <v>2.248951487051029E-06</v>
       </c>
       <c r="T17">
-        <v>0.002300828727270798</v>
+        <v>2.248951487051029E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>34.2417632381682</v>
+        <v>0.03355766666666667</v>
       </c>
       <c r="H18">
-        <v>34.2417632381682</v>
+        <v>0.100673</v>
       </c>
       <c r="I18">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082319</v>
       </c>
       <c r="J18">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082318</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.564572820492847</v>
+        <v>0.624846</v>
       </c>
       <c r="N18">
-        <v>0.564572820492847</v>
+        <v>1.874538</v>
       </c>
       <c r="O18">
-        <v>0.01108753391486393</v>
+        <v>0.01100884101541447</v>
       </c>
       <c r="P18">
-        <v>0.01108753391486393</v>
+        <v>0.01100884101541447</v>
       </c>
       <c r="Q18">
-        <v>19.3319688500209</v>
+        <v>0.020968373786</v>
       </c>
       <c r="R18">
-        <v>19.3319688500209</v>
+        <v>0.188715364074</v>
       </c>
       <c r="S18">
-        <v>0.00320259022144286</v>
+        <v>2.85569084506985E-06</v>
       </c>
       <c r="T18">
-        <v>0.00320259022144286</v>
+        <v>2.855690845069849E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03355766666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.100673</v>
+      </c>
+      <c r="I19">
+        <v>0.0002593997716082319</v>
+      </c>
+      <c r="J19">
+        <v>0.0002593997716082318</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>51.07351833333333</v>
+      </c>
+      <c r="N19">
+        <v>153.220555</v>
+      </c>
+      <c r="O19">
+        <v>0.8998381095974417</v>
+      </c>
+      <c r="P19">
+        <v>0.8998381095974416</v>
+      </c>
+      <c r="Q19">
+        <v>1.713908103723889</v>
+      </c>
+      <c r="R19">
+        <v>15.425172933515</v>
+      </c>
+      <c r="S19">
+        <v>0.0002334178001139595</v>
+      </c>
+      <c r="T19">
+        <v>0.0002334178001139594</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.309271</v>
+      </c>
+      <c r="I20">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J20">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.356035</v>
+      </c>
+      <c r="N20">
+        <v>4.068105</v>
+      </c>
+      <c r="O20">
+        <v>0.02389128477470859</v>
+      </c>
+      <c r="P20">
+        <v>0.02389128477470859</v>
+      </c>
+      <c r="Q20">
+        <v>0.1397941001616667</v>
+      </c>
+      <c r="R20">
+        <v>1.258146901455</v>
+      </c>
+      <c r="S20">
+        <v>1.903861196393732E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.903861196393731E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.309271</v>
+      </c>
+      <c r="I21">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J21">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.189198666666667</v>
+      </c>
+      <c r="N21">
+        <v>6.567596</v>
+      </c>
+      <c r="O21">
+        <v>0.03857036785462446</v>
+      </c>
+      <c r="P21">
+        <v>0.03857036785462446</v>
+      </c>
+      <c r="Q21">
+        <v>0.2256852202795556</v>
+      </c>
+      <c r="R21">
+        <v>2.031166982516</v>
+      </c>
+      <c r="S21">
+        <v>3.073615646103206E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.073615646103206E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.309271</v>
+      </c>
+      <c r="I22">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J22">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.022878333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.068635</v>
+      </c>
+      <c r="O22">
+        <v>0.01802156843410824</v>
+      </c>
+      <c r="P22">
+        <v>0.01802156843410824</v>
+      </c>
+      <c r="Q22">
+        <v>0.1054488683427778</v>
+      </c>
+      <c r="R22">
+        <v>0.949039815085</v>
+      </c>
+      <c r="S22">
+        <v>1.436112170751659E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.436112170751659E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.309271</v>
+      </c>
+      <c r="I23">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J23">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.492087</v>
+      </c>
+      <c r="N23">
+        <v>1.476261</v>
+      </c>
+      <c r="O23">
+        <v>0.00866982832370258</v>
+      </c>
+      <c r="P23">
+        <v>0.00866982832370258</v>
+      </c>
+      <c r="Q23">
+        <v>0.050729412859</v>
+      </c>
+      <c r="R23">
+        <v>0.456564715731</v>
+      </c>
+      <c r="S23">
+        <v>6.908858138247185E-06</v>
+      </c>
+      <c r="T23">
+        <v>6.908858138247184E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.309271</v>
+      </c>
+      <c r="I24">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J24">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.624846</v>
+      </c>
+      <c r="N24">
+        <v>1.874538</v>
+      </c>
+      <c r="O24">
+        <v>0.01100884101541447</v>
+      </c>
+      <c r="P24">
+        <v>0.01100884101541447</v>
+      </c>
+      <c r="Q24">
+        <v>0.064415582422</v>
+      </c>
+      <c r="R24">
+        <v>0.5797402417980001</v>
+      </c>
+      <c r="S24">
+        <v>8.772782805177135E-06</v>
+      </c>
+      <c r="T24">
+        <v>8.772782805177134E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.309271</v>
+      </c>
+      <c r="I25">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J25">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>51.07351833333333</v>
+      </c>
+      <c r="N25">
+        <v>153.220555</v>
+      </c>
+      <c r="O25">
+        <v>0.8998381095974417</v>
+      </c>
+      <c r="P25">
+        <v>0.8998381095974416</v>
+      </c>
+      <c r="Q25">
+        <v>5.265186029489445</v>
+      </c>
+      <c r="R25">
+        <v>47.386674265405</v>
+      </c>
+      <c r="S25">
+        <v>0.000717067698976333</v>
+      </c>
+      <c r="T25">
+        <v>0.0007170676989763329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.008067</v>
+      </c>
+      <c r="H26">
+        <v>0.024201</v>
+      </c>
+      <c r="I26">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J26">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.356035</v>
+      </c>
+      <c r="N26">
+        <v>4.068105</v>
+      </c>
+      <c r="O26">
+        <v>0.02389128477470859</v>
+      </c>
+      <c r="P26">
+        <v>0.02389128477470859</v>
+      </c>
+      <c r="Q26">
+        <v>0.010939134345</v>
+      </c>
+      <c r="R26">
+        <v>0.09845220910500001</v>
+      </c>
+      <c r="S26">
+        <v>1.489804890013118E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.489804890013118E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.008067</v>
+      </c>
+      <c r="H27">
+        <v>0.024201</v>
+      </c>
+      <c r="I27">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J27">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.189198666666667</v>
+      </c>
+      <c r="N27">
+        <v>6.567596</v>
+      </c>
+      <c r="O27">
+        <v>0.03857036785462446</v>
+      </c>
+      <c r="P27">
+        <v>0.03857036785462446</v>
+      </c>
+      <c r="Q27">
+        <v>0.017660265644</v>
+      </c>
+      <c r="R27">
+        <v>0.158942390796</v>
+      </c>
+      <c r="S27">
+        <v>2.405158332056472E-06</v>
+      </c>
+      <c r="T27">
+        <v>2.405158332056472E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>34.2417632381682</v>
-      </c>
-      <c r="H19">
-        <v>34.2417632381682</v>
-      </c>
-      <c r="I19">
-        <v>0.2888460361009108</v>
-      </c>
-      <c r="J19">
-        <v>0.2888460361009108</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>46.0435329494206</v>
-      </c>
-      <c r="N19">
-        <v>46.0435329494206</v>
-      </c>
-      <c r="O19">
-        <v>0.9042398333862478</v>
-      </c>
-      <c r="P19">
-        <v>0.9042398333862478</v>
-      </c>
-      <c r="Q19">
-        <v>1576.611753902856</v>
-      </c>
-      <c r="R19">
-        <v>1576.611753902856</v>
-      </c>
-      <c r="S19">
-        <v>0.2611860915581656</v>
-      </c>
-      <c r="T19">
-        <v>0.2611860915581656</v>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.008067</v>
+      </c>
+      <c r="H28">
+        <v>0.024201</v>
+      </c>
+      <c r="I28">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J28">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.022878333333333</v>
+      </c>
+      <c r="N28">
+        <v>3.068635</v>
+      </c>
+      <c r="O28">
+        <v>0.01802156843410824</v>
+      </c>
+      <c r="P28">
+        <v>0.01802156843410824</v>
+      </c>
+      <c r="Q28">
+        <v>0.008251559515</v>
+      </c>
+      <c r="R28">
+        <v>0.074264035635</v>
+      </c>
+      <c r="S28">
+        <v>1.123783046078064E-06</v>
+      </c>
+      <c r="T28">
+        <v>1.123783046078064E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.008067</v>
+      </c>
+      <c r="H29">
+        <v>0.024201</v>
+      </c>
+      <c r="I29">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J29">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.492087</v>
+      </c>
+      <c r="N29">
+        <v>1.476261</v>
+      </c>
+      <c r="O29">
+        <v>0.00866982832370258</v>
+      </c>
+      <c r="P29">
+        <v>0.00866982832370258</v>
+      </c>
+      <c r="Q29">
+        <v>0.003969665829</v>
+      </c>
+      <c r="R29">
+        <v>0.035726992461</v>
+      </c>
+      <c r="S29">
+        <v>5.406303074123346E-07</v>
+      </c>
+      <c r="T29">
+        <v>5.406303074123346E-07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.008067</v>
+      </c>
+      <c r="H30">
+        <v>0.024201</v>
+      </c>
+      <c r="I30">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J30">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.624846</v>
+      </c>
+      <c r="N30">
+        <v>1.874538</v>
+      </c>
+      <c r="O30">
+        <v>0.01100884101541447</v>
+      </c>
+      <c r="P30">
+        <v>0.01100884101541447</v>
+      </c>
+      <c r="Q30">
+        <v>0.005040632682</v>
+      </c>
+      <c r="R30">
+        <v>0.045365694138</v>
+      </c>
+      <c r="S30">
+        <v>6.864856927034601E-07</v>
+      </c>
+      <c r="T30">
+        <v>6.864856927034601E-07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.008067</v>
+      </c>
+      <c r="H31">
+        <v>0.024201</v>
+      </c>
+      <c r="I31">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J31">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>51.07351833333333</v>
+      </c>
+      <c r="N31">
+        <v>153.220555</v>
+      </c>
+      <c r="O31">
+        <v>0.8998381095974417</v>
+      </c>
+      <c r="P31">
+        <v>0.8998381095974416</v>
+      </c>
+      <c r="Q31">
+        <v>0.412010072395</v>
+      </c>
+      <c r="R31">
+        <v>3.708090651555</v>
+      </c>
+      <c r="S31">
+        <v>5.611180932879655E-05</v>
+      </c>
+      <c r="T31">
+        <v>5.611180932879654E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H32">
+        <v>117.105898</v>
+      </c>
+      <c r="I32">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J32">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.356035</v>
+      </c>
+      <c r="N32">
+        <v>4.068105</v>
+      </c>
+      <c r="O32">
+        <v>0.02389128477470859</v>
+      </c>
+      <c r="P32">
+        <v>0.02389128477470859</v>
+      </c>
+      <c r="Q32">
+        <v>52.93323213147667</v>
+      </c>
+      <c r="R32">
+        <v>476.39908918329</v>
+      </c>
+      <c r="S32">
+        <v>0.007208997127795438</v>
+      </c>
+      <c r="T32">
+        <v>0.007208997127795437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H33">
+        <v>117.105898</v>
+      </c>
+      <c r="I33">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J33">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.189198666666667</v>
+      </c>
+      <c r="N33">
+        <v>6.567596</v>
+      </c>
+      <c r="O33">
+        <v>0.03857036785462446</v>
+      </c>
+      <c r="P33">
+        <v>0.03857036785462446</v>
+      </c>
+      <c r="Q33">
+        <v>85.45602525346756</v>
+      </c>
+      <c r="R33">
+        <v>769.104227281208</v>
+      </c>
+      <c r="S33">
+        <v>0.01163828876111133</v>
+      </c>
+      <c r="T33">
+        <v>0.01163828876111133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H34">
+        <v>117.105898</v>
+      </c>
+      <c r="I34">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J34">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.022878333333333</v>
+      </c>
+      <c r="N34">
+        <v>3.068635</v>
+      </c>
+      <c r="O34">
+        <v>0.01802156843410824</v>
+      </c>
+      <c r="P34">
+        <v>0.01802156843410824</v>
+      </c>
+      <c r="Q34">
+        <v>39.92836192324778</v>
+      </c>
+      <c r="R34">
+        <v>359.35525730923</v>
+      </c>
+      <c r="S34">
+        <v>0.005437858880548205</v>
+      </c>
+      <c r="T34">
+        <v>0.005437858880548204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H35">
+        <v>117.105898</v>
+      </c>
+      <c r="I35">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J35">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.492087</v>
+      </c>
+      <c r="N35">
+        <v>1.476261</v>
+      </c>
+      <c r="O35">
+        <v>0.00866982832370258</v>
+      </c>
+      <c r="P35">
+        <v>0.00866982832370258</v>
+      </c>
+      <c r="Q35">
+        <v>19.208763343042</v>
+      </c>
+      <c r="R35">
+        <v>172.878870087378</v>
+      </c>
+      <c r="S35">
+        <v>0.002616048825897174</v>
+      </c>
+      <c r="T35">
+        <v>0.002616048825897173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H36">
+        <v>117.105898</v>
+      </c>
+      <c r="I36">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J36">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.624846</v>
+      </c>
+      <c r="N36">
+        <v>1.874538</v>
+      </c>
+      <c r="O36">
+        <v>0.01100884101541447</v>
+      </c>
+      <c r="P36">
+        <v>0.01100884101541447</v>
+      </c>
+      <c r="Q36">
+        <v>24.391050647236</v>
+      </c>
+      <c r="R36">
+        <v>219.519455825124</v>
+      </c>
+      <c r="S36">
+        <v>0.003321826515771694</v>
+      </c>
+      <c r="T36">
+        <v>0.003321826515771693</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H37">
+        <v>117.105898</v>
+      </c>
+      <c r="I37">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J37">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>51.07351833333333</v>
+      </c>
+      <c r="N37">
+        <v>153.220555</v>
+      </c>
+      <c r="O37">
+        <v>0.8998381095974417</v>
+      </c>
+      <c r="P37">
+        <v>0.8998381095974416</v>
+      </c>
+      <c r="Q37">
+        <v>1993.670076148155</v>
+      </c>
+      <c r="R37">
+        <v>17943.03068533339</v>
+      </c>
+      <c r="S37">
+        <v>0.2715186901307176</v>
+      </c>
+      <c r="T37">
+        <v>0.2715186901307175</v>
       </c>
     </row>
   </sheetData>
